--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3306171.56500493</v>
+        <v>3304283.983488529</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516126.8619380338</v>
+        <v>579141.7698272893</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>35.90542370068031</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>373.4396174853144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.2957343884579</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>55.71969997626034</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>282.3324648256021</v>
+        <v>92.9966896168353</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,10 +953,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>122.3623168480193</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>123.2202590352919</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.8950372953901</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>255.7292869272877</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.66385641544507</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>120.4120358099646</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174138</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.3868338106978</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>86.47365081503116</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051997</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>130.2712161377617</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>28.2252332247382</v>
       </c>
       <c r="S19" t="n">
-        <v>80.16697784769933</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.85123176253134</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750034</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.713041941212623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>39.29178130450705</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>49.21182350370142</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533805</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965546</v>
+        <v>93.41221638965553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801227</v>
+        <v>91.23070601801234</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437434</v>
+        <v>90.21779139437442</v>
       </c>
       <c r="G31" t="n">
-        <v>63.11622243099428</v>
+        <v>111.2903118348208</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571509</v>
+        <v>55.21598883571517</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752359</v>
+        <v>54.76109577523597</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952712</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080342</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>91.58055624492417</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415213</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.0661152341316</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>614.0661152341316</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2660.88098627006</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2484.703498584231</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304456</v>
+        <v>2266.068831556293</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2012.307046194385</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1681.244158850814</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677825</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.0661152341316</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4416,28 +4416,28 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332.1920961943574</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>332.1920961943574</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245972</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1108.378893121371</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C5" t="n">
-        <v>1108.378893121371</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="D5" t="n">
-        <v>750.1131945146205</v>
+        <v>540.6127852858276</v>
       </c>
       <c r="E5" t="n">
-        <v>750.1131945146205</v>
+        <v>154.8245326875834</v>
       </c>
       <c r="F5" t="n">
-        <v>339.127289725013</v>
+        <v>147.8790319383799</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1498.518225097183</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>1108.378893121371</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.5412816668486</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>177.5412816668486</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>177.5412816668486</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>177.5412816668486</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406185</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.1897464970883</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1491.915471247701</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>737.1647017090454</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>326.1787969194378</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>312.2553928580288</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>1878.515311311823</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.128984206434</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.128984206434</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940982</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117051</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137947</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521271</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="X10" t="n">
-        <v>606.50066520647</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.7080860629399</v>
+        <v>728.128984206434</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5027,25 +5027,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,13 +5054,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>499.8094658942267</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>729.7725717625758</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M12" t="n">
-        <v>1050.107891292278</v>
+        <v>1672.759814717972</v>
       </c>
       <c r="N12" t="n">
-        <v>1854.519469556428</v>
+        <v>2017.28047035559</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.272883640391</v>
+        <v>2266.033884439552</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>544.6416868225884</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C13" t="n">
-        <v>544.6416868225887</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5197,16 +5197,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1411.569148522517</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617345002</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617345002</v>
+        <v>983.6595875400524</v>
       </c>
       <c r="Y13" t="n">
-        <v>699.57788259097</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>436.896710962637</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>1050.793780719526</v>
+        <v>1079.287811648746</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111987</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028581</v>
+        <v>657.199424285124</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>657.199424285124</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1167.409173465615</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1167.409173465615</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>877.992003428654</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028581</v>
+        <v>877.992003428654</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028581</v>
+        <v>657.199424285124</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,13 +5513,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5534,25 +5534,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5595,16 +5595,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>436.896710962637</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>1050.793780719526</v>
+        <v>802.0403666355639</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111987</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.7235151749151</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>563.7235151749151</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1470.405933967258</v>
       </c>
       <c r="S19" t="n">
-        <v>1417.939525257196</v>
+        <v>1270.48592388281</v>
       </c>
       <c r="T19" t="n">
-        <v>1194.154110046702</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="U19" t="n">
-        <v>1194.154110046702</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="V19" t="n">
-        <v>1194.154110046702</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="W19" t="n">
-        <v>1194.154110046702</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X19" t="n">
-        <v>966.1645591486849</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.3719800051548</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5774,22 +5774,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899877</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022017</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227925</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169057</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>330.825454879945</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>330.825454879945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>330.825454879945</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.963989254139</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1891.427750556798</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2411.728372292545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.723515174915</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>563.723515174915</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>563.723515174915</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473456</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687014</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>755.1831334811269</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>755.1831334811269</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>755.1831334811269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>745.3719800051546</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6224,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,7 +6260,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1891.427750556797</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2411.728372292545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.2896273329889</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
-        <v>396.353444405082</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>396.353444405082</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>248.440350822689</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>248.4403508226889</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>248.4403508226889</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557903</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765189</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765189</v>
+        <v>955.1031435655739</v>
       </c>
       <c r="W28" t="n">
-        <v>786.0822064765189</v>
+        <v>665.6859735286133</v>
       </c>
       <c r="X28" t="n">
-        <v>786.0822064765189</v>
+        <v>665.6859735286133</v>
       </c>
       <c r="Y28" t="n">
-        <v>565.2896273329889</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6543,22 +6543,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899876</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1891.427750556797</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2411.728372292545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>607.5569798833388</v>
+        <v>656.2176762508407</v>
       </c>
       <c r="C31" t="n">
-        <v>494.3816622368026</v>
+        <v>543.0423586043044</v>
       </c>
       <c r="D31" t="n">
-        <v>400.0258881058374</v>
+        <v>448.6865844733392</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8736598048149</v>
+        <v>356.5343561723166</v>
       </c>
       <c r="F31" t="n">
-        <v>216.7445775882751</v>
+        <v>265.4052739557767</v>
       </c>
       <c r="G31" t="n">
         <v>152.9908175569678</v>
@@ -6616,16 +6616,16 @@
         <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933497</v>
+        <v>369.0876362933496</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667501</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962041</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899268</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1880.811824899268</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.652680096192</v>
+        <v>1712.787274970145</v>
       </c>
       <c r="U31" t="n">
-        <v>1503.28490659112</v>
+        <v>1479.419501465073</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.361283666604</v>
+        <v>1280.495878540557</v>
       </c>
       <c r="W31" t="n">
-        <v>1070.704978911014</v>
+        <v>1046.839573784967</v>
       </c>
       <c r="X31" t="n">
-        <v>898.4762932943675</v>
+        <v>874.6108881683201</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.4445794322079</v>
+        <v>782.1052757997098</v>
       </c>
     </row>
     <row r="32">
@@ -6680,52 +6680,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M33" t="n">
-        <v>417.5524109899876</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N33" t="n">
-        <v>1221.963989254138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O33" t="n">
-        <v>1891.427750556797</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2411.728372292545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7169,34 +7169,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7309,25 +7309,25 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525401</v>
@@ -7366,13 +7366,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010315</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,28 +7400,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,10 +7430,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,28 +7476,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,49 +7631,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,13 +7801,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013787</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8790,7 +8790,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.44514637123953</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>23.49070158876161</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>155.9661362608156</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>81.73911917905458</v>
       </c>
       <c r="S19" t="n">
-        <v>117.7538321359039</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.98074841940596</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338582</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.8716114108821</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>109.622047063029</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>169.3728298483934</v>
       </c>
     </row>
     <row r="29">
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>48.1740894038264</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897923</v>
+        <v>93.7105717389793</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>71.80084047861379</v>
       </c>
     </row>
     <row r="32">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.948567219</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.948567219</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="H2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="I2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="I2" t="n">
-        <v>645197.9485672194</v>
-      </c>
       <c r="J2" t="n">
-        <v>645197.948567219</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="K2" t="n">
         <v>671256.5266196955</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380328</v>
+        <v>677359.4601380324</v>
       </c>
       <c r="M2" t="n">
+        <v>677359.4601380324</v>
+      </c>
+      <c r="N2" t="n">
         <v>677359.4601380329</v>
       </c>
-      <c r="N2" t="n">
-        <v>677359.4601380334</v>
-      </c>
       <c r="O2" t="n">
-        <v>677359.460138033</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.4601380328</v>
+        <v>677359.4601380329</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284546</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086701</v>
+        <v>10342.90680086709</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284546</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758329</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758286</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758477</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758785</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.79369057589</v>
+        <v>787.7936905758629</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477235</v>
+        <v>18952.41620477234</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
+        <v>23206.58093189642</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189642</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189636</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.6363205397</v>
+        <v>-134526.6363205393</v>
       </c>
       <c r="C6" t="n">
+        <v>455441.242894005</v>
+      </c>
+      <c r="D6" t="n">
         <v>455441.2428940051</v>
       </c>
-      <c r="D6" t="n">
-        <v>455441.2428940049</v>
-      </c>
       <c r="E6" t="n">
-        <v>27262.79245103011</v>
+        <v>27165.33332505802</v>
       </c>
       <c r="F6" t="n">
-        <v>552422.8289279265</v>
+        <v>552325.3698019547</v>
       </c>
       <c r="G6" t="n">
-        <v>552422.8289279271</v>
+        <v>552325.3698019549</v>
       </c>
       <c r="H6" t="n">
-        <v>552422.8289279271</v>
+        <v>552325.3698019546</v>
       </c>
       <c r="I6" t="n">
-        <v>552422.828927927</v>
+        <v>552325.3698019549</v>
       </c>
       <c r="J6" t="n">
-        <v>375999.6097353337</v>
+        <v>375902.1506093619</v>
       </c>
       <c r="K6" t="n">
-        <v>511513.2965818549</v>
+        <v>511494.8028439206</v>
       </c>
       <c r="L6" t="n">
-        <v>546094.866585244</v>
+        <v>546094.8665852436</v>
       </c>
       <c r="M6" t="n">
-        <v>421636.758152274</v>
+        <v>421636.7581522734</v>
       </c>
       <c r="N6" t="n">
-        <v>556437.7733861117</v>
+        <v>556437.7733861113</v>
       </c>
       <c r="O6" t="n">
-        <v>556437.7733861113</v>
+        <v>556437.773386111</v>
       </c>
       <c r="P6" t="n">
-        <v>512275.1680832655</v>
+        <v>512275.1680832657</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964069</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541004</v>
@@ -26750,13 +26750,13 @@
         <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108377</v>
+        <v>12.92863350108387</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855683</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>18.57297887413142</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.7983211707392</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>29.31973862975448</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>230.5621742657174</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>131.4517051951929</v>
+        <v>320.7874804039597</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>23.05873117491193</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>88.92527991472696</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.8388043680905</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>68.19348583706949</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28017,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242635007</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>105.2976195790726</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.735996994178907e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855683</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,40 +31519,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>280.0351660364681</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>176.6627710335712</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>48.48571443651653</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>344.6639853288868</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,22 +32309,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>216.4869287318321</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>353.0329386354459</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4309478731432</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.1520833060237</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33260,28 +33260,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33497,28 +33497,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33655,7 +33655,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33734,19 +33734,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33971,10 +33971,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33983,7 +33983,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>213.8677363986961</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33995,7 +33995,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34220,7 +34220,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34366,7 +34366,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34381,7 +34381,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946992</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>406.6589640746877</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>361.1511322591781</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>175.1095124747361</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>576.9499508524718</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>343.1107267700517</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>585.3189041590309</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>728.4316101333634</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>203.2475969558512</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.9849829127205</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.9849829127205</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412242</v>
+        <v>67.71102679412235</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084853</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075293</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491596</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043165</v>
+        <v>94.42895660043158</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.9849829127205</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
@@ -37631,7 +37631,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>561.8683986589164</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37798,7 +37798,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37868,7 +37868,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
